--- a/objeto_del_gasto.catalog.xlsx
+++ b/objeto_del_gasto.catalog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Concatenated" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Concatenated!$A$1:$E$909</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Concatenated!$A$1:$E$909</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concatenated!$A$1:$E$909</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concatenated!$A$1:$E$909</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="974">
   <si>
     <t xml:space="preserve">CAPITULO</t>
   </si>
@@ -2419,117 +2420,420 @@
     <t xml:space="preserve">Material impreso e información digital</t>
   </si>
   <si>
+    <t xml:space="preserve">Mantenimiento y rehabilitación de obras públicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gratificación de fin de año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales y útiles para el procesamiento en equipos y bienes informáticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refacciones, accesorios y herramientas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refacciones y accesorios para equipo de cómputo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales de construcción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estructuras y manufacturas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestuario, uniformes y blancos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios de informática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patentes, regalías y otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantenimiento y conservación de inmuebles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios de lavandería, limpieza, higiene y fumigación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasajes nacionales para servidores públicos de mando en el desempeño de comisiones y funciones oficiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasajes internacionales para servidores públicos en el desempeño de comisiones y funciones oficiales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asignaciones a los grupos parlamentarios</t>
   </si>
   <si>
+    <t xml:space="preserve">Erogaciones por resoluciones judiciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo educacional y recreativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehículos y equipo terrestres, aéreos, marítimos, lacustres y fluviales destinados a servicios administrativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otras medidas de carácter laboral y económicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios relacionados con trabajo administrativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios de auditoría para la fiscalización superior de la Cuenta Pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios relacionados con obras públicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyo a voluntarios que participan en diversos programas Federales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diferencias por variaciones en el tipo de cambio</t>
   </si>
   <si>
+    <t xml:space="preserve">Pago por riesgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materias primas de producción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustancias químicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refacciones y accesorios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastos en actividades de seguridad y logística del estado mayor presidencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros arrendamientos (Sólo para el Ramo 03 Poder Judicial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehículos y equipo terrestres, aéreos, marítimos, lacustres y fluviales destinados a servidores públicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras de construcción para edificios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalación del personal Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combustibles para plantas productivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras de construcción de ingeniería civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distrito Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasajes nacionales asociados a desastres naturales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asignaciones por radicación en el extranjero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastos de las oficinas del servicio exterior mexicano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaulipas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidios a las entidades federativas y municipios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehículos y equipo terrestres, aéreos, marítimos, lacustres y fluviales para la ejecución de programas de seguridad pública y nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasajes nacionales asociados a los programas de seguridad pública y nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasajes internacionales asociados a los programas de seguridad pública y nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintana Roo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastos de las comisiones Internacionales de límites y aguas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones de la federación a los organismos del sistema nacional de coordinación fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donativos a fideicomisos privados y estatales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre haberes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehículos y equipo terrestres, aéreos, marítimos, lacustres y fluviales destinados a servicios públicos y la operación de programas públicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pérdidas del erario Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asignaciones inherentes a la conclusión de servicios en la administración pública Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retribución a los representantes de los trabajadores y de los patrones en la junta Federal de conciliación y arbitraje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehículos y equipo terrestres, aéreos, marítimos, lacustres y fluviales destinados exclusivamente para desastres naturales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para adquisición de materiales y suministros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias estatutarias al IMSS y aportaciones al ISSFAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para ayuda extraordinaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para contratación de servicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasto Federal reasignado a las entidades federativas y municipios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyo financiero a representantes del Poder Legislativo y representantes de partidos políticos ante el Consejo General del IFE (Sólo para el Ramo 22 Instituto Federal Electoral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros arrendamientos (Solo para el Ramo 22 Instituto Federal Electoral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyo financiero al Comité Nacional de Supervisión y Evaluación y a la Comisión Nacional de Vigilancia locales y distritales del Registro Federal de Electores (Sólo para el Ramo 22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financiamiento público a partidos políticos y agrupaciones políticas con registro autorizado por la autoridad electoral (Sólo para el Ramo 22 Instituto Federal Electoral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dietas a consejeros electorales locales y distritales en el año electoral federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisiones para erogaciones especiales ( No se desagrega en partidas )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios para incrementos a las percepciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios para otras medidas de carácter laboral y económicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios por previsiones para aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios por previsiones para aportaciones al FOVISSSTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios por previsiones para aportaciones al sistema de ahorro para el retiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios por previsiones para aportaciones al seguro de cesantía en edad avanzada y vejez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios por previsiones para los depósitos al ahorro solidario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios para servicios personales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios para creación de plazas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para servicios personales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para aportaciones al FOVISSSTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para aportaciones al sistema de ahorro para el retiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para aportaciones al seguro de cesantía en edad avanzada y vejez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios para gastos de operación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para premios y recompensas en los sistemas nacional de investigadores, de creadores y de otras disciplinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para apoyo a voluntarios en programas sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para honorarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios para aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios para aportaciones al FOVISSSTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios para aportaciones al sistema de ahorro para el retiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios para aportaciones al seguro de cesantía en edad avanzada y vejez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para incrementos a las percepciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias para otras medidas de carácter laboral y económicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias por previsiones para aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias por previsiones para aportaciones al FOVISSSTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias por previsiones para aportaciones al Sistema de Ahorro para el Retiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias por previsiones para aportaciones al seguro de cesantía en edad avanzada y vejez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias por previsiones para los depósitos al ahorro solidario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeudos de Ejercicios Fiscales Anteriores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios para gastos de inversión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportaciones Federales a las entidades federativas y municipios para los depósitos al ahorro solidario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales y artículos de construcción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales y útiles de administración y de enseñanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productos alimenticios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestuario, blancos, prendas de protección personal y artículos deportivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios comercial, bancario, financiero, subcontratación de servicios con terceros y gastos inherentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios de impresión, grabado, publicación, difusión e información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asesorías, consultorías, servicios informáticos, estudios e investigaciones y otros servicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios de mantenimiento y conservación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derogada</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otras ayudas para programas de capacitación</t>
   </si>
   <si>
     <t xml:space="preserve">Aportaciones a fideicomisos públicos del Poder Judicial</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distrito Federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subsidios a las entidades federativas y municipios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamaulipas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refacciones y accesorios</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gasto federal reasignado a las entidades federativas y municipios</t>
   </si>
   <si>
@@ -2540,9 +2844,6 @@
   </si>
   <si>
     <t xml:space="preserve">Financiamiento público a partidos políticos y agrupaciones políticas con registro autorizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dietas a consejeros electorales locales y distritales en el año electoral federal</t>
   </si>
   <si>
     <t xml:space="preserve">Apoyo financiero a consejeros electorales locales y distritales en año electoral federal</t>
@@ -2822,12 +3123,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.85714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9540816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.6020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="108.102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.96428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.93367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="109.938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17195,9 +17496,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.2193877551021"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.9081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17304,9 +17605,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.9081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.8826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.9081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18037,17 +18338,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B868"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A305" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D337" activeCellId="0" sqref="D337"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B357" activeCellId="0" sqref="B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="26.1326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="106.479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="26.5663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="108.316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.9081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20896,6 +21197,4102 @@
       </c>
       <c r="B356" s="4" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="6" t="n">
+        <v>6108</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="6" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="6" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="6" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="6" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="6" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="6" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="6" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="6" t="n">
+        <v>1307</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="6" t="n">
+        <v>1319</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="6" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="6" t="n">
+        <v>1401</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="6" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="6" t="n">
+        <v>1404</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="6" t="n">
+        <v>1406</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="6" t="n">
+        <v>1407</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="6" t="n">
+        <v>1413</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="6" t="n">
+        <v>1414</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="6" t="n">
+        <v>1415</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="6" t="n">
+        <v>1505</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="6" t="n">
+        <v>1507</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="6" t="n">
+        <v>1509</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="6" t="n">
+        <v>1511</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="6" t="n">
+        <v>1512</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="6" t="n">
+        <v>1702</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="6" t="n">
+        <v>2101</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="6" t="n">
+        <v>2102</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="6" t="n">
+        <v>2103</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="6" t="n">
+        <v>2105</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="6" t="n">
+        <v>2106</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="6" t="n">
+        <v>2204</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="6" t="n">
+        <v>2207</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="6" t="n">
+        <v>2301</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="6" t="n">
+        <v>2302</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="6" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="6" t="n">
+        <v>2401</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="6" t="n">
+        <v>2402</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="6" t="n">
+        <v>2403</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="6" t="n">
+        <v>2404</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="6" t="n">
+        <v>2504</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="6" t="n">
+        <v>2505</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="6" t="n">
+        <v>2603</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="6" t="n">
+        <v>2701</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="6" t="n">
+        <v>2702</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="6" t="n">
+        <v>2703</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="6" t="n">
+        <v>3101</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="6" t="n">
+        <v>3103</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="6" t="n">
+        <v>3104</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="6" t="n">
+        <v>3106</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="6" t="n">
+        <v>3107</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="6" t="n">
+        <v>3109</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="6" t="n">
+        <v>3203</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="6" t="n">
+        <v>3204</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="6" t="n">
+        <v>3209</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="6" t="n">
+        <v>3304</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="6" t="n">
+        <v>3305</v>
+      </c>
+      <c r="B412" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="6" t="n">
+        <v>3306</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="6" t="n">
+        <v>3308</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="6" t="n">
+        <v>3309</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="6" t="n">
+        <v>3402</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="6" t="n">
+        <v>3403</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="6" t="n">
+        <v>3404</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="6" t="n">
+        <v>3407</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="6" t="n">
+        <v>3409</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="6" t="n">
+        <v>3411</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="6" t="n">
+        <v>3413</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="6" t="n">
+        <v>3414</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="6" t="n">
+        <v>3418</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="6" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="6" t="n">
+        <v>3502</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="6" t="n">
+        <v>3503</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="6" t="n">
+        <v>3504</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="6" t="n">
+        <v>3505</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="6" t="n">
+        <v>3506</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="6" t="n">
+        <v>3602</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="6" t="n">
+        <v>3603</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="6" t="n">
+        <v>3701</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="6" t="n">
+        <v>3803</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="6" t="n">
+        <v>3804</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="6" t="n">
+        <v>3811</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="6" t="n">
+        <v>3813</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="6" t="n">
+        <v>3817</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="6" t="n">
+        <v>3819</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="6" t="n">
+        <v>3826</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="6" t="n">
+        <v>3827</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="6" t="n">
+        <v>3828</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="6" t="n">
+        <v>3901</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="6" t="n">
+        <v>3904</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="6" t="n">
+        <v>5101</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="6" t="n">
+        <v>5102</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="6" t="n">
+        <v>5103</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="6" t="n">
+        <v>5104</v>
+      </c>
+      <c r="B448" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="6" t="n">
+        <v>5202</v>
+      </c>
+      <c r="B449" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="6" t="n">
+        <v>5204</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="6" t="n">
+        <v>5205</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="6" t="n">
+        <v>5206</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="6" t="n">
+        <v>5304</v>
+      </c>
+      <c r="B453" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="6" t="n">
+        <v>5401</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="6" t="n">
+        <v>7501</v>
+      </c>
+      <c r="B455" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="6" t="n">
+        <v>7503</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="6" t="n">
+        <v>7504</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="6" t="n">
+        <v>1409</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="6" t="n">
+        <v>1701</v>
+      </c>
+      <c r="B459" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="6" t="n">
+        <v>1801</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="6" t="n">
+        <v>1803</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="6" t="n">
+        <v>1804</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="6" t="n">
+        <v>1805</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="6" t="n">
+        <v>1806</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="6" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="6" t="n">
+        <v>1808</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="6" t="n">
+        <v>2104</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="6" t="n">
+        <v>2206</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="6" t="n">
+        <v>2503</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="6" t="n">
+        <v>2604</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="6" t="n">
+        <v>2605</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="6" t="n">
+        <v>3102</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="6" t="n">
+        <v>3105</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="6" t="n">
+        <v>3111</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="6" t="n">
+        <v>3201</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="6" t="n">
+        <v>3310</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="6" t="n">
+        <v>3311</v>
+      </c>
+      <c r="B477" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="6" t="n">
+        <v>3312</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="6" t="n">
+        <v>3313</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="6" t="n">
+        <v>3401</v>
+      </c>
+      <c r="B480" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="6" t="n">
+        <v>3601</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="6" t="n">
+        <v>3607</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="6" t="n">
+        <v>3808</v>
+      </c>
+      <c r="B483" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="6" t="n">
+        <v>3821</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="6" t="n">
+        <v>3832</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="6" t="n">
+        <v>5501</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="6" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B487" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="6" t="n">
+        <v>6107</v>
+      </c>
+      <c r="B488" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="6" t="n">
+        <v>7511</v>
+      </c>
+      <c r="B489" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="6" t="n">
+        <v>7512</v>
+      </c>
+      <c r="B490" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="6" t="n">
+        <v>6105</v>
+      </c>
+      <c r="B491" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="6" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B492" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="6" t="n">
+        <v>1408</v>
+      </c>
+      <c r="B493" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="6" t="n">
+        <v>1513</v>
+      </c>
+      <c r="B494" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="6" t="n">
+        <v>3108</v>
+      </c>
+      <c r="B495" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="6" t="n">
+        <v>3207</v>
+      </c>
+      <c r="B496" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="6" t="n">
+        <v>3410</v>
+      </c>
+      <c r="B497" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="6" t="n">
+        <v>3802</v>
+      </c>
+      <c r="B498" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="6" t="n">
+        <v>3805</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="6" t="n">
+        <v>7505</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="6" t="n">
+        <v>1514</v>
+      </c>
+      <c r="B501" s="6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="6" t="n">
+        <v>2501</v>
+      </c>
+      <c r="B502" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="6" t="n">
+        <v>2502</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="6" t="n">
+        <v>2602</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="6" t="n">
+        <v>3110</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="6" t="n">
+        <v>3206</v>
+      </c>
+      <c r="B506" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="6" t="n">
+        <v>3417</v>
+      </c>
+      <c r="B507" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="6" t="n">
+        <v>3801</v>
+      </c>
+      <c r="B508" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="6" t="n">
+        <v>3905</v>
+      </c>
+      <c r="B509" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="6" t="n">
+        <v>5402</v>
+      </c>
+      <c r="B510" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="6" t="n">
+        <v>5902</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="6" t="n">
+        <v>2108</v>
+      </c>
+      <c r="B512" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="6" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B513" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="6" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B514" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="6" t="n">
+        <v>5502</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="6" t="n">
+        <v>2107</v>
+      </c>
+      <c r="B516" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="6" t="n">
+        <v>3823</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="6" t="n">
+        <v>3824</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="6" t="n">
+        <v>5801</v>
+      </c>
+      <c r="B519" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="6" t="n">
+        <v>5802</v>
+      </c>
+      <c r="B520" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="6" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="6" t="n">
+        <v>2201</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="6" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="6" t="n">
+        <v>2801</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="6" t="n">
+        <v>2802</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="6" t="n">
+        <v>2803</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="6" t="n">
+        <v>3405</v>
+      </c>
+      <c r="B527" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="6" t="n">
+        <v>1802</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="6" t="n">
+        <v>3213</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="6" t="n">
+        <v>5305</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="6" t="n">
+        <v>6102</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="6" t="n">
+        <v>7502</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="6" t="n">
+        <v>7801</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="6" t="n">
+        <v>3820</v>
+      </c>
+      <c r="B534" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="6" t="n">
+        <v>3903</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="6" t="n">
+        <v>1327</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="6" t="n">
+        <v>2606</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="6" t="n">
+        <v>3210</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="6" t="n">
+        <v>6103</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="6" t="n">
+        <v>4204</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="6" t="n">
+        <v>4207</v>
+      </c>
+      <c r="B541" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="6" t="n">
+        <v>4209</v>
+      </c>
+      <c r="B542" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="6" t="n">
+        <v>4211</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="6" t="n">
+        <v>4213</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="6" t="n">
+        <v>4217</v>
+      </c>
+      <c r="B545" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="6" t="n">
+        <v>4220</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="6" t="n">
+        <v>4225</v>
+      </c>
+      <c r="B547" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="6" t="n">
+        <v>4226</v>
+      </c>
+      <c r="B548" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="6" t="n">
+        <v>4230</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="6" t="n">
+        <v>4231</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="6" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B551" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="6" t="n">
+        <v>3810</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="6" t="n">
+        <v>3816</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="6" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="6" t="n">
+        <v>3822</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="6" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B556" s="6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="6" t="n">
+        <v>1329</v>
+      </c>
+      <c r="B557" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="6" t="n">
+        <v>3807</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="6" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B559" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="6" t="n">
+        <v>4205</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="6" t="n">
+        <v>4206</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="6" t="n">
+        <v>4208</v>
+      </c>
+      <c r="B562" s="6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="6" t="n">
+        <v>4212</v>
+      </c>
+      <c r="B563" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="6" t="n">
+        <v>4219</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="6" t="n">
+        <v>4222</v>
+      </c>
+      <c r="B565" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="6" t="n">
+        <v>4224</v>
+      </c>
+      <c r="B566" s="6" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="6" t="n">
+        <v>4227</v>
+      </c>
+      <c r="B567" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="6" t="n">
+        <v>4228</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="6" t="n">
+        <v>4229</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="6" t="n">
+        <v>4232</v>
+      </c>
+      <c r="B570" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="6" t="n">
+        <v>4233</v>
+      </c>
+      <c r="B571" s="6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="6" t="n">
+        <v>2202</v>
+      </c>
+      <c r="B572" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="6" t="n">
+        <v>3301</v>
+      </c>
+      <c r="B573" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="6" t="n">
+        <v>4216</v>
+      </c>
+      <c r="B574" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="6" t="n">
+        <v>6101</v>
+      </c>
+      <c r="B575" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="6" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B576" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="6" t="n">
+        <v>1411</v>
+      </c>
+      <c r="B577" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="6" t="n">
+        <v>3202</v>
+      </c>
+      <c r="B578" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="6" t="n">
+        <v>3814</v>
+      </c>
+      <c r="B579" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="6" t="n">
+        <v>3307</v>
+      </c>
+      <c r="B580" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="6" t="n">
+        <v>2601</v>
+      </c>
+      <c r="B581" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="6" t="n">
+        <v>3205</v>
+      </c>
+      <c r="B582" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="6" t="n">
+        <v>5301</v>
+      </c>
+      <c r="B583" s="6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="6" t="n">
+        <v>3809</v>
+      </c>
+      <c r="B584" s="6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="6" t="n">
+        <v>3812</v>
+      </c>
+      <c r="B585" s="6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="6" t="n">
+        <v>3818</v>
+      </c>
+      <c r="B586" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="6" t="n">
+        <v>4202</v>
+      </c>
+      <c r="B587" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="6" t="n">
+        <v>4210</v>
+      </c>
+      <c r="B588" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="6" t="n">
+        <v>4214</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="6" t="n">
+        <v>4215</v>
+      </c>
+      <c r="B590" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="6" t="n">
+        <v>4221</v>
+      </c>
+      <c r="B591" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="6" t="n">
+        <v>4223</v>
+      </c>
+      <c r="B592" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="6" t="n">
+        <v>4201</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="6" t="n">
+        <v>4218</v>
+      </c>
+      <c r="B594" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="6" t="n">
+        <v>5904</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="6" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B596" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="6" t="n">
+        <v>6106</v>
+      </c>
+      <c r="B597" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="6" t="n">
+        <v>5701</v>
+      </c>
+      <c r="B598" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="6" t="n">
+        <v>3829</v>
+      </c>
+      <c r="B599" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="6" t="n">
+        <v>7802</v>
+      </c>
+      <c r="B600" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="6" t="n">
+        <v>3806</v>
+      </c>
+      <c r="B601" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="6" t="n">
+        <v>8601</v>
+      </c>
+      <c r="B602" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="6" t="n">
+        <v>3303</v>
+      </c>
+      <c r="B603" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="6" t="n">
+        <v>7206</v>
+      </c>
+      <c r="B604" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="6" t="n">
+        <v>7507</v>
+      </c>
+      <c r="B605" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="6" t="n">
+        <v>3408</v>
+      </c>
+      <c r="B606" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="6" t="n">
+        <v>4105</v>
+      </c>
+      <c r="B607" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="6" t="n">
+        <v>4101</v>
+      </c>
+      <c r="B608" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="6" t="n">
+        <v>4107</v>
+      </c>
+      <c r="B609" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="6" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B610" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="6" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B611" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="6" t="n">
+        <v>3830</v>
+      </c>
+      <c r="B612" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="6" t="n">
+        <v>3412</v>
+      </c>
+      <c r="B613" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="6" t="n">
+        <v>7103</v>
+      </c>
+      <c r="B614" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="6" t="n">
+        <v>7201</v>
+      </c>
+      <c r="B615" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="6" t="n">
+        <v>7508</v>
+      </c>
+      <c r="B616" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="6" t="n">
+        <v>7202</v>
+      </c>
+      <c r="B617" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="6" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B618" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="6" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B619" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="6" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B620" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="6" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B621" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="6" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B622" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="6" t="n">
+        <v>1402</v>
+      </c>
+      <c r="B623" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="6" t="n">
+        <v>1405</v>
+      </c>
+      <c r="B624" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="6" t="n">
+        <v>1502</v>
+      </c>
+      <c r="B625" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="6" t="n">
+        <v>1503</v>
+      </c>
+      <c r="B626" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="6" t="n">
+        <v>2205</v>
+      </c>
+      <c r="B627" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="6" t="n">
+        <v>3416</v>
+      </c>
+      <c r="B628" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="6" t="n">
+        <v>7510</v>
+      </c>
+      <c r="B629" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="6" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B630" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="6" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B631" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="6" t="n">
+        <v>5901</v>
+      </c>
+      <c r="B632" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="6" t="n">
+        <v>4108</v>
+      </c>
+      <c r="B633" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="6" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B634" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="6" t="n">
+        <v>1324</v>
+      </c>
+      <c r="B635" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="6" t="n">
+        <v>3112</v>
+      </c>
+      <c r="B636" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="6" t="n">
+        <v>5303</v>
+      </c>
+      <c r="B637" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="6" t="n">
+        <v>5703</v>
+      </c>
+      <c r="B638" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="6" t="n">
+        <v>8509</v>
+      </c>
+      <c r="B639" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="6" t="n">
+        <v>1325</v>
+      </c>
+      <c r="B640" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="6" t="n">
+        <v>8514</v>
+      </c>
+      <c r="B641" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="6" t="n">
+        <v>8502</v>
+      </c>
+      <c r="B642" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="6" t="n">
+        <v>5702</v>
+      </c>
+      <c r="B643" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="6" t="n">
+        <v>3415</v>
+      </c>
+      <c r="B644" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="6" t="n">
+        <v>8508</v>
+      </c>
+      <c r="B645" s="6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="6" t="n">
+        <v>8511</v>
+      </c>
+      <c r="B646" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="6" t="n">
+        <v>8525</v>
+      </c>
+      <c r="B647" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="6" t="n">
+        <v>8526</v>
+      </c>
+      <c r="B648" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="6" t="n">
+        <v>8528</v>
+      </c>
+      <c r="B649" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="6" t="n">
+        <v>3702</v>
+      </c>
+      <c r="B650" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="6" t="n">
+        <v>4104</v>
+      </c>
+      <c r="B651" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="6" t="n">
+        <v>3302</v>
+      </c>
+      <c r="B652" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="6" t="n">
+        <v>3406</v>
+      </c>
+      <c r="B653" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="6" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B654" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="6" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B655" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="6" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B656" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="6" t="n">
+        <v>1323</v>
+      </c>
+      <c r="B657" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="6" t="n">
+        <v>7509</v>
+      </c>
+      <c r="B658" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="6" t="n">
+        <v>5601</v>
+      </c>
+      <c r="B659" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="6" t="n">
+        <v>2901</v>
+      </c>
+      <c r="B660" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="6" t="n">
+        <v>7506</v>
+      </c>
+      <c r="B661" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="6" t="n">
+        <v>3211</v>
+      </c>
+      <c r="B662" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="6" t="n">
+        <v>1504</v>
+      </c>
+      <c r="B663" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="6" t="n">
+        <v>3902</v>
+      </c>
+      <c r="B664" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="6" t="n">
+        <v>1412</v>
+      </c>
+      <c r="B665" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="6" t="n">
+        <v>1326</v>
+      </c>
+      <c r="B666" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="6" t="n">
+        <v>3815</v>
+      </c>
+      <c r="B667" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="6" t="n">
+        <v>1330</v>
+      </c>
+      <c r="B668" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="6" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B669" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="6" t="n">
+        <v>3208</v>
+      </c>
+      <c r="B670" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="6" t="n">
+        <v>6104</v>
+      </c>
+      <c r="B671" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="6" t="n">
+        <v>5302</v>
+      </c>
+      <c r="B672" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="6" t="n">
+        <v>4302</v>
+      </c>
+      <c r="B673" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="6" t="n">
+        <v>7205</v>
+      </c>
+      <c r="B674" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="6" t="n">
+        <v>7701</v>
+      </c>
+      <c r="B675" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="6" t="n">
+        <v>7704</v>
+      </c>
+      <c r="B676" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="6" t="n">
+        <v>4307</v>
+      </c>
+      <c r="B677" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="6" t="n">
+        <v>4319</v>
+      </c>
+      <c r="B678" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="6" t="n">
+        <v>4309</v>
+      </c>
+      <c r="B679" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="6" t="n">
+        <v>4308</v>
+      </c>
+      <c r="B680" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="6" t="n">
+        <v>4303</v>
+      </c>
+      <c r="B681" s="6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="6" t="n">
+        <v>3507</v>
+      </c>
+      <c r="B682" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="6" t="n">
+        <v>4103</v>
+      </c>
+      <c r="B683" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="6" t="n">
+        <v>8501</v>
+      </c>
+      <c r="B684" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="6" t="n">
+        <v>8504</v>
+      </c>
+      <c r="B685" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="6" t="n">
+        <v>8505</v>
+      </c>
+      <c r="B686" s="6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="6" t="n">
+        <v>8506</v>
+      </c>
+      <c r="B687" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="6" t="n">
+        <v>8507</v>
+      </c>
+      <c r="B688" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="6" t="n">
+        <v>8512</v>
+      </c>
+      <c r="B689" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="6" t="n">
+        <v>8513</v>
+      </c>
+      <c r="B690" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="6" t="n">
+        <v>8515</v>
+      </c>
+      <c r="B691" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="6" t="n">
+        <v>8516</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="6" t="n">
+        <v>8517</v>
+      </c>
+      <c r="B693" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="6" t="n">
+        <v>8520</v>
+      </c>
+      <c r="B694" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="6" t="n">
+        <v>8523</v>
+      </c>
+      <c r="B695" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="6" t="n">
+        <v>8527</v>
+      </c>
+      <c r="B696" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="6" t="n">
+        <v>8533</v>
+      </c>
+      <c r="B697" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="6" t="n">
+        <v>8518</v>
+      </c>
+      <c r="B698" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="6" t="n">
+        <v>8519</v>
+      </c>
+      <c r="B699" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="6" t="n">
+        <v>8521</v>
+      </c>
+      <c r="B700" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="6" t="n">
+        <v>8522</v>
+      </c>
+      <c r="B701" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="6" t="n">
+        <v>8524</v>
+      </c>
+      <c r="B702" s="6" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="6" t="n">
+        <v>8529</v>
+      </c>
+      <c r="B703" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="6" t="n">
+        <v>8530</v>
+      </c>
+      <c r="B704" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="6" t="n">
+        <v>8531</v>
+      </c>
+      <c r="B705" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="6" t="n">
+        <v>8532</v>
+      </c>
+      <c r="B706" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="6" t="n">
+        <v>7522</v>
+      </c>
+      <c r="B707" s="6" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="6" t="n">
+        <v>3220</v>
+      </c>
+      <c r="B708" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="6" t="n">
+        <v>7518</v>
+      </c>
+      <c r="B709" s="6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="6" t="n">
+        <v>7519</v>
+      </c>
+      <c r="B710" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="6" t="n">
+        <v>7602</v>
+      </c>
+      <c r="B711" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="6" t="n">
+        <v>7517</v>
+      </c>
+      <c r="B712" s="6" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="6" t="n">
+        <v>7400</v>
+      </c>
+      <c r="B713" s="6" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="6" t="n">
+        <v>9202</v>
+      </c>
+      <c r="B714" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="6" t="n">
+        <v>9301</v>
+      </c>
+      <c r="B715" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="6" t="n">
+        <v>9401</v>
+      </c>
+      <c r="B716" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="6" t="n">
+        <v>9201</v>
+      </c>
+      <c r="B717" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="6" t="n">
+        <v>9209</v>
+      </c>
+      <c r="B718" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="6" t="n">
+        <v>9302</v>
+      </c>
+      <c r="B719" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="6" t="n">
+        <v>9402</v>
+      </c>
+      <c r="B720" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="6" t="n">
+        <v>9206</v>
+      </c>
+      <c r="B721" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="6" t="n">
+        <v>9501</v>
+      </c>
+      <c r="B722" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="6" t="n">
+        <v>9208</v>
+      </c>
+      <c r="B723" s="6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="6" t="n">
+        <v>9207</v>
+      </c>
+      <c r="B724" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="6" t="n">
+        <v>8406</v>
+      </c>
+      <c r="B725" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="6" t="n">
+        <v>8408</v>
+      </c>
+      <c r="B726" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="6" t="n">
+        <v>8410</v>
+      </c>
+      <c r="B727" s="6" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="6" t="n">
+        <v>8411</v>
+      </c>
+      <c r="B728" s="6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="6" t="n">
+        <v>8415</v>
+      </c>
+      <c r="B729" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="6" t="n">
+        <v>8416</v>
+      </c>
+      <c r="B730" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="6" t="n">
+        <v>8417</v>
+      </c>
+      <c r="B731" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="6" t="n">
+        <v>8401</v>
+      </c>
+      <c r="B732" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="6" t="n">
+        <v>8407</v>
+      </c>
+      <c r="B733" s="6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="6" t="n">
+        <v>4301</v>
+      </c>
+      <c r="B734" s="6" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="6" t="n">
+        <v>4312</v>
+      </c>
+      <c r="B735" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="6" t="n">
+        <v>4323</v>
+      </c>
+      <c r="B736" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="6" t="n">
+        <v>4330</v>
+      </c>
+      <c r="B737" s="6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="6" t="n">
+        <v>4333</v>
+      </c>
+      <c r="B738" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="6" t="n">
+        <v>8403</v>
+      </c>
+      <c r="B739" s="6" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="6" t="n">
+        <v>4317</v>
+      </c>
+      <c r="B740" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="6" t="n">
+        <v>4318</v>
+      </c>
+      <c r="B741" s="6" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="6" t="n">
+        <v>4322</v>
+      </c>
+      <c r="B742" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="6" t="n">
+        <v>8402</v>
+      </c>
+      <c r="B743" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="6" t="n">
+        <v>8409</v>
+      </c>
+      <c r="B744" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="6" t="n">
+        <v>8412</v>
+      </c>
+      <c r="B745" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="6" t="n">
+        <v>8413</v>
+      </c>
+      <c r="B746" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="6" t="n">
+        <v>4313</v>
+      </c>
+      <c r="B747" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="6" t="n">
+        <v>4321</v>
+      </c>
+      <c r="B748" s="6" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="6" t="n">
+        <v>4324</v>
+      </c>
+      <c r="B749" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="6" t="n">
+        <v>4325</v>
+      </c>
+      <c r="B750" s="6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="6" t="n">
+        <v>4331</v>
+      </c>
+      <c r="B751" s="6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="6" t="n">
+        <v>4335</v>
+      </c>
+      <c r="B752" s="6" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="6" t="n">
+        <v>4336</v>
+      </c>
+      <c r="B753" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="6" t="n">
+        <v>8101</v>
+      </c>
+      <c r="B754" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="6" t="n">
+        <v>8102</v>
+      </c>
+      <c r="B755" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="6" t="n">
+        <v>8103</v>
+      </c>
+      <c r="B756" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="6" t="n">
+        <v>8104</v>
+      </c>
+      <c r="B757" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="6" t="n">
+        <v>8105</v>
+      </c>
+      <c r="B758" s="6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="6" t="n">
+        <v>8106</v>
+      </c>
+      <c r="B759" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="6" t="n">
+        <v>8107</v>
+      </c>
+      <c r="B760" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="6" t="n">
+        <v>8108</v>
+      </c>
+      <c r="B761" s="6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="6" t="n">
+        <v>8109</v>
+      </c>
+      <c r="B762" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="6" t="n">
+        <v>8110</v>
+      </c>
+      <c r="B763" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="6" t="n">
+        <v>8111</v>
+      </c>
+      <c r="B764" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="6" t="n">
+        <v>8112</v>
+      </c>
+      <c r="B765" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="6" t="n">
+        <v>8113</v>
+      </c>
+      <c r="B766" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="6" t="n">
+        <v>8114</v>
+      </c>
+      <c r="B767" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="6" t="n">
+        <v>8115</v>
+      </c>
+      <c r="B768" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="6" t="n">
+        <v>8116</v>
+      </c>
+      <c r="B769" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="6" t="n">
+        <v>8117</v>
+      </c>
+      <c r="B770" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="6" t="n">
+        <v>8118</v>
+      </c>
+      <c r="B771" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="6" t="n">
+        <v>8119</v>
+      </c>
+      <c r="B772" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="6" t="n">
+        <v>8120</v>
+      </c>
+      <c r="B773" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="6" t="n">
+        <v>8121</v>
+      </c>
+      <c r="B774" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="6" t="n">
+        <v>8122</v>
+      </c>
+      <c r="B775" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="6" t="n">
+        <v>8123</v>
+      </c>
+      <c r="B776" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="6" t="n">
+        <v>8124</v>
+      </c>
+      <c r="B777" s="6" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="6" t="n">
+        <v>8125</v>
+      </c>
+      <c r="B778" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="6" t="n">
+        <v>8126</v>
+      </c>
+      <c r="B779" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="6" t="n">
+        <v>8127</v>
+      </c>
+      <c r="B780" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="6" t="n">
+        <v>8128</v>
+      </c>
+      <c r="B781" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="6" t="n">
+        <v>8129</v>
+      </c>
+      <c r="B782" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="6" t="n">
+        <v>8130</v>
+      </c>
+      <c r="B783" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="6" t="n">
+        <v>8131</v>
+      </c>
+      <c r="B784" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="6" t="n">
+        <v>8132</v>
+      </c>
+      <c r="B785" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="6" t="n">
+        <v>8201</v>
+      </c>
+      <c r="B786" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="6" t="n">
+        <v>8202</v>
+      </c>
+      <c r="B787" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="6" t="n">
+        <v>8203</v>
+      </c>
+      <c r="B788" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="6" t="n">
+        <v>8204</v>
+      </c>
+      <c r="B789" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="6" t="n">
+        <v>8205</v>
+      </c>
+      <c r="B790" s="6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="6" t="n">
+        <v>8206</v>
+      </c>
+      <c r="B791" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="6" t="n">
+        <v>8207</v>
+      </c>
+      <c r="B792" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="6" t="n">
+        <v>8208</v>
+      </c>
+      <c r="B793" s="6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="6" t="n">
+        <v>8209</v>
+      </c>
+      <c r="B794" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="6" t="n">
+        <v>8210</v>
+      </c>
+      <c r="B795" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="6" t="n">
+        <v>8211</v>
+      </c>
+      <c r="B796" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="6" t="n">
+        <v>8212</v>
+      </c>
+      <c r="B797" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="6" t="n">
+        <v>8213</v>
+      </c>
+      <c r="B798" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="6" t="n">
+        <v>8214</v>
+      </c>
+      <c r="B799" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="6" t="n">
+        <v>8215</v>
+      </c>
+      <c r="B800" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="6" t="n">
+        <v>8216</v>
+      </c>
+      <c r="B801" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="6" t="n">
+        <v>8217</v>
+      </c>
+      <c r="B802" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="6" t="n">
+        <v>8218</v>
+      </c>
+      <c r="B803" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="6" t="n">
+        <v>8219</v>
+      </c>
+      <c r="B804" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="6" t="n">
+        <v>8220</v>
+      </c>
+      <c r="B805" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="6" t="n">
+        <v>8221</v>
+      </c>
+      <c r="B806" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="6" t="n">
+        <v>8222</v>
+      </c>
+      <c r="B807" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="6" t="n">
+        <v>8223</v>
+      </c>
+      <c r="B808" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="6" t="n">
+        <v>8224</v>
+      </c>
+      <c r="B809" s="6" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="6" t="n">
+        <v>8225</v>
+      </c>
+      <c r="B810" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="6" t="n">
+        <v>8226</v>
+      </c>
+      <c r="B811" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="6" t="n">
+        <v>8227</v>
+      </c>
+      <c r="B812" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="6" t="n">
+        <v>8228</v>
+      </c>
+      <c r="B813" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="6" t="n">
+        <v>8229</v>
+      </c>
+      <c r="B814" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="6" t="n">
+        <v>8230</v>
+      </c>
+      <c r="B815" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="6" t="n">
+        <v>8231</v>
+      </c>
+      <c r="B816" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="6" t="n">
+        <v>8232</v>
+      </c>
+      <c r="B817" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="6" t="n">
+        <v>8301</v>
+      </c>
+      <c r="B818" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="6" t="n">
+        <v>8302</v>
+      </c>
+      <c r="B819" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="6" t="n">
+        <v>8303</v>
+      </c>
+      <c r="B820" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="6" t="n">
+        <v>8304</v>
+      </c>
+      <c r="B821" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="6" t="n">
+        <v>8305</v>
+      </c>
+      <c r="B822" s="6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="6" t="n">
+        <v>8306</v>
+      </c>
+      <c r="B823" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="6" t="n">
+        <v>8307</v>
+      </c>
+      <c r="B824" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="6" t="n">
+        <v>8308</v>
+      </c>
+      <c r="B825" s="6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="6" t="n">
+        <v>8309</v>
+      </c>
+      <c r="B826" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="6" t="n">
+        <v>8310</v>
+      </c>
+      <c r="B827" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="6" t="n">
+        <v>8311</v>
+      </c>
+      <c r="B828" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="6" t="n">
+        <v>8312</v>
+      </c>
+      <c r="B829" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="6" t="n">
+        <v>8313</v>
+      </c>
+      <c r="B830" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="6" t="n">
+        <v>8314</v>
+      </c>
+      <c r="B831" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="6" t="n">
+        <v>8315</v>
+      </c>
+      <c r="B832" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="6" t="n">
+        <v>8316</v>
+      </c>
+      <c r="B833" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="6" t="n">
+        <v>8317</v>
+      </c>
+      <c r="B834" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="6" t="n">
+        <v>8318</v>
+      </c>
+      <c r="B835" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="6" t="n">
+        <v>8319</v>
+      </c>
+      <c r="B836" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="6" t="n">
+        <v>8320</v>
+      </c>
+      <c r="B837" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A838" s="6" t="n">
+        <v>8321</v>
+      </c>
+      <c r="B838" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A839" s="6" t="n">
+        <v>8322</v>
+      </c>
+      <c r="B839" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A840" s="6" t="n">
+        <v>8323</v>
+      </c>
+      <c r="B840" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="6" t="n">
+        <v>8324</v>
+      </c>
+      <c r="B841" s="6" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="6" t="n">
+        <v>8325</v>
+      </c>
+      <c r="B842" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A843" s="6" t="n">
+        <v>8326</v>
+      </c>
+      <c r="B843" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A844" s="6" t="n">
+        <v>8327</v>
+      </c>
+      <c r="B844" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A845" s="6" t="n">
+        <v>8328</v>
+      </c>
+      <c r="B845" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A846" s="6" t="n">
+        <v>8329</v>
+      </c>
+      <c r="B846" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A847" s="6" t="n">
+        <v>8330</v>
+      </c>
+      <c r="B847" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A848" s="6" t="n">
+        <v>8331</v>
+      </c>
+      <c r="B848" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A849" s="6" t="n">
+        <v>8332</v>
+      </c>
+      <c r="B849" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A850" s="6" t="n">
+        <v>8603</v>
+      </c>
+      <c r="B850" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A851" s="6" t="n">
+        <v>9601</v>
+      </c>
+      <c r="B851" s="6" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A852" s="6" t="n">
+        <v>8404</v>
+      </c>
+      <c r="B852" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A853" s="6" t="n">
+        <v>8405</v>
+      </c>
+      <c r="B853" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A854" s="6" t="n">
+        <v>8414</v>
+      </c>
+      <c r="B854" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A855" s="6" t="n">
+        <v>9702</v>
+      </c>
+      <c r="B855" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="6" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B856" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A857" s="6" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B857" s="6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A858" s="6" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B858" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A859" s="6" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B859" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A860" s="6" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B860" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A861" s="6" t="n">
+        <v>3100</v>
+      </c>
+      <c r="B861" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A862" s="6" t="n">
+        <v>3200</v>
+      </c>
+      <c r="B862" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A863" s="6" t="n">
+        <v>3400</v>
+      </c>
+      <c r="B863" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="6" t="n">
+        <v>3600</v>
+      </c>
+      <c r="B864" s="6" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="6" t="n">
+        <v>3800</v>
+      </c>
+      <c r="B865" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="6" t="n">
+        <v>3300</v>
+      </c>
+      <c r="B866" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A867" s="6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B867" s="6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A868" s="6" t="n">
+        <v>3604</v>
+      </c>
+      <c r="B868" s="6" t="s">
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -20916,15 +25313,15 @@
   </sheetPr>
   <dimension ref="A1:B669"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A462" activeCellId="0" sqref="A462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.9081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24620,7 +29017,7 @@
         <v>39903</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24628,7 +29025,7 @@
         <v>34901</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>797</v>
+        <v>819</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24636,7 +29033,7 @@
         <v>44201</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>798</v>
+        <v>932</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24644,7 +29041,7 @@
         <v>46301</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>799</v>
+        <v>933</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24668,7 +29065,7 @@
         <v>43804</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24676,7 +29073,7 @@
         <v>43807</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24684,7 +29081,7 @@
         <v>43811</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>802</v>
+        <v>834</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24692,7 +29089,7 @@
         <v>43814</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>803</v>
+        <v>864</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24700,7 +29097,7 @@
         <v>43818</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>804</v>
+        <v>869</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24708,7 +29105,7 @@
         <v>43821</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>805</v>
+        <v>866</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24716,7 +29113,7 @@
         <v>43823</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>806</v>
+        <v>867</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24724,7 +29121,7 @@
         <v>43806</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>807</v>
+        <v>847</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24732,7 +29129,7 @@
         <v>43809</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24740,7 +29137,7 @@
         <v>43802</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>809</v>
+        <v>862</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24748,7 +29145,7 @@
         <v>43803</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>810</v>
+        <v>845</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24756,7 +29153,7 @@
         <v>43805</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>811</v>
+        <v>846</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24764,7 +29161,7 @@
         <v>43813</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24772,7 +29169,7 @@
         <v>43815</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>813</v>
+        <v>865</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24780,7 +29177,7 @@
         <v>43816</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>814</v>
+        <v>858</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24788,7 +29185,7 @@
         <v>43817</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24796,7 +29193,7 @@
         <v>43820</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24804,7 +29201,7 @@
         <v>43824</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>817</v>
+        <v>852</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24812,7 +29209,7 @@
         <v>43825</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24820,7 +29217,7 @@
         <v>43830</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24828,7 +29225,7 @@
         <v>43833</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>820</v>
+        <v>857</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24836,7 +29233,7 @@
         <v>43826</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24844,7 +29241,7 @@
         <v>43808</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24852,7 +29249,7 @@
         <v>43810</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>823</v>
+        <v>863</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24860,7 +29257,7 @@
         <v>43812</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24868,7 +29265,7 @@
         <v>43819</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24876,7 +29273,7 @@
         <v>43822</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24884,7 +29281,7 @@
         <v>43827</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24892,7 +29289,7 @@
         <v>43828</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24900,7 +29297,7 @@
         <v>43829</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24908,7 +29305,7 @@
         <v>43831</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24916,7 +29313,7 @@
         <v>43832</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24924,7 +29321,7 @@
         <v>56903</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24932,7 +29329,7 @@
         <v>85109</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24940,7 +29337,7 @@
         <v>85108</v>
       </c>
       <c r="B502" s="6" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24948,7 +29345,7 @@
         <v>85114</v>
       </c>
       <c r="B503" s="6" t="s">
-        <v>803</v>
+        <v>864</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24956,7 +29353,7 @@
         <v>85128</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24964,7 +29361,7 @@
         <v>85102</v>
       </c>
       <c r="B505" s="6" t="s">
-        <v>809</v>
+        <v>862</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24972,7 +29369,7 @@
         <v>85104</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24980,7 +29377,7 @@
         <v>85105</v>
       </c>
       <c r="B507" s="6" t="s">
-        <v>811</v>
+        <v>846</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24988,7 +29385,7 @@
         <v>85106</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>807</v>
+        <v>847</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24996,7 +29393,7 @@
         <v>85107</v>
       </c>
       <c r="B509" s="6" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25004,7 +29401,7 @@
         <v>85111</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>802</v>
+        <v>834</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25012,7 +29409,7 @@
         <v>85112</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25020,7 +29417,7 @@
         <v>85113</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25028,7 +29425,7 @@
         <v>85116</v>
       </c>
       <c r="B513" s="6" t="s">
-        <v>814</v>
+        <v>858</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25036,7 +29433,7 @@
         <v>85117</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25044,7 +29441,7 @@
         <v>85118</v>
       </c>
       <c r="B515" s="6" t="s">
-        <v>804</v>
+        <v>869</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25052,7 +29449,7 @@
         <v>85119</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25060,7 +29457,7 @@
         <v>85120</v>
       </c>
       <c r="B517" s="6" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25068,7 +29465,7 @@
         <v>85122</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25076,7 +29473,7 @@
         <v>85124</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>817</v>
+        <v>852</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25084,7 +29481,7 @@
         <v>85125</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25092,7 +29489,7 @@
         <v>85129</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25100,7 +29497,7 @@
         <v>85130</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25108,7 +29505,7 @@
         <v>85133</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>833</v>
+        <v>934</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25116,7 +29513,7 @@
         <v>85110</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>823</v>
+        <v>863</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25124,7 +29521,7 @@
         <v>85115</v>
       </c>
       <c r="B525" s="6" t="s">
-        <v>813</v>
+        <v>865</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25132,7 +29529,7 @@
         <v>85121</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>805</v>
+        <v>866</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25140,7 +29537,7 @@
         <v>85123</v>
       </c>
       <c r="B527" s="6" t="s">
-        <v>806</v>
+        <v>867</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25148,7 +29545,7 @@
         <v>85126</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25156,7 +29553,7 @@
         <v>85127</v>
       </c>
       <c r="B529" s="6" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25164,7 +29561,7 @@
         <v>85131</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25172,7 +29569,7 @@
         <v>85132</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25180,7 +29577,7 @@
         <v>44107</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>834</v>
+        <v>935</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25188,7 +29585,7 @@
         <v>44501</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>835</v>
+        <v>936</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25196,7 +29593,7 @@
         <v>44502</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>836</v>
+        <v>937</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25204,7 +29601,7 @@
         <v>44108</v>
       </c>
       <c r="B535" s="6" t="s">
-        <v>837</v>
+        <v>888</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25212,7 +29609,7 @@
         <v>44110</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>838</v>
+        <v>938</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25220,7 +29617,7 @@
         <v>81102</v>
       </c>
       <c r="B537" s="6" t="s">
-        <v>809</v>
+        <v>862</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25228,7 +29625,7 @@
         <v>81103</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>810</v>
+        <v>845</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25236,7 +29633,7 @@
         <v>81104</v>
       </c>
       <c r="B539" s="6" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25244,7 +29641,7 @@
         <v>81105</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>811</v>
+        <v>846</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25252,7 +29649,7 @@
         <v>81106</v>
       </c>
       <c r="B541" s="6" t="s">
-        <v>807</v>
+        <v>847</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25260,7 +29657,7 @@
         <v>81107</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25268,7 +29665,7 @@
         <v>81108</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25276,7 +29673,7 @@
         <v>81109</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25284,7 +29681,7 @@
         <v>81110</v>
       </c>
       <c r="B545" s="6" t="s">
-        <v>823</v>
+        <v>863</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25292,7 +29689,7 @@
         <v>81111</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>802</v>
+        <v>834</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25300,7 +29697,7 @@
         <v>81112</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25308,7 +29705,7 @@
         <v>81113</v>
       </c>
       <c r="B548" s="6" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25316,7 +29713,7 @@
         <v>81114</v>
       </c>
       <c r="B549" s="6" t="s">
-        <v>803</v>
+        <v>864</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25324,7 +29721,7 @@
         <v>81115</v>
       </c>
       <c r="B550" s="6" t="s">
-        <v>813</v>
+        <v>865</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25332,7 +29729,7 @@
         <v>81116</v>
       </c>
       <c r="B551" s="6" t="s">
-        <v>814</v>
+        <v>858</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25340,7 +29737,7 @@
         <v>81117</v>
       </c>
       <c r="B552" s="6" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25348,7 +29745,7 @@
         <v>81118</v>
       </c>
       <c r="B553" s="6" t="s">
-        <v>804</v>
+        <v>869</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25356,7 +29753,7 @@
         <v>81119</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25364,7 +29761,7 @@
         <v>81120</v>
       </c>
       <c r="B555" s="6" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25372,7 +29769,7 @@
         <v>81121</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>805</v>
+        <v>866</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25380,7 +29777,7 @@
         <v>81122</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25388,7 +29785,7 @@
         <v>81123</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>806</v>
+        <v>867</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25396,7 +29793,7 @@
         <v>81124</v>
       </c>
       <c r="B559" s="6" t="s">
-        <v>817</v>
+        <v>852</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25404,7 +29801,7 @@
         <v>81125</v>
       </c>
       <c r="B560" s="6" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25412,7 +29809,7 @@
         <v>81126</v>
       </c>
       <c r="B561" s="6" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25420,7 +29817,7 @@
         <v>81127</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25428,7 +29825,7 @@
         <v>81128</v>
       </c>
       <c r="B563" s="6" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25436,7 +29833,7 @@
         <v>81129</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25444,7 +29841,7 @@
         <v>81130</v>
       </c>
       <c r="B565" s="6" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25452,7 +29849,7 @@
         <v>81131</v>
       </c>
       <c r="B566" s="6" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25460,7 +29857,7 @@
         <v>81132</v>
       </c>
       <c r="B567" s="6" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25468,7 +29865,7 @@
         <v>81202</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>809</v>
+        <v>862</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25476,7 +29873,7 @@
         <v>81203</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>810</v>
+        <v>845</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25484,7 +29881,7 @@
         <v>81204</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25492,7 +29889,7 @@
         <v>81205</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>811</v>
+        <v>846</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25500,7 +29897,7 @@
         <v>81206</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>807</v>
+        <v>847</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25508,7 +29905,7 @@
         <v>81207</v>
       </c>
       <c r="B573" s="6" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25516,7 +29913,7 @@
         <v>81208</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25524,7 +29921,7 @@
         <v>81209</v>
       </c>
       <c r="B575" s="6" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25532,7 +29929,7 @@
         <v>81210</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>823</v>
+        <v>863</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25540,7 +29937,7 @@
         <v>81211</v>
       </c>
       <c r="B577" s="6" t="s">
-        <v>802</v>
+        <v>834</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25548,7 +29945,7 @@
         <v>81212</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25556,7 +29953,7 @@
         <v>81213</v>
       </c>
       <c r="B579" s="6" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25564,7 +29961,7 @@
         <v>81214</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>803</v>
+        <v>864</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25572,7 +29969,7 @@
         <v>81215</v>
       </c>
       <c r="B581" s="6" t="s">
-        <v>813</v>
+        <v>865</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25580,7 +29977,7 @@
         <v>81216</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>814</v>
+        <v>858</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25588,7 +29985,7 @@
         <v>81217</v>
       </c>
       <c r="B583" s="6" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25596,7 +29993,7 @@
         <v>81218</v>
       </c>
       <c r="B584" s="6" t="s">
-        <v>804</v>
+        <v>869</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25604,7 +30001,7 @@
         <v>81219</v>
       </c>
       <c r="B585" s="6" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25612,7 +30009,7 @@
         <v>81220</v>
       </c>
       <c r="B586" s="6" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25620,7 +30017,7 @@
         <v>81221</v>
       </c>
       <c r="B587" s="6" t="s">
-        <v>805</v>
+        <v>866</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25628,7 +30025,7 @@
         <v>81222</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25636,7 +30033,7 @@
         <v>81223</v>
       </c>
       <c r="B589" s="6" t="s">
-        <v>806</v>
+        <v>867</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25644,7 +30041,7 @@
         <v>81224</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>817</v>
+        <v>852</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25652,7 +30049,7 @@
         <v>81225</v>
       </c>
       <c r="B591" s="6" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25660,7 +30057,7 @@
         <v>81226</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25668,7 +30065,7 @@
         <v>81227</v>
       </c>
       <c r="B593" s="6" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25676,7 +30073,7 @@
         <v>81228</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25684,7 +30081,7 @@
         <v>81229</v>
       </c>
       <c r="B595" s="6" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25692,7 +30089,7 @@
         <v>81230</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25700,7 +30097,7 @@
         <v>81231</v>
       </c>
       <c r="B597" s="6" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25708,7 +30105,7 @@
         <v>81232</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25716,7 +30113,7 @@
         <v>81402</v>
       </c>
       <c r="B599" s="6" t="s">
-        <v>809</v>
+        <v>862</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25724,7 +30121,7 @@
         <v>81403</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>810</v>
+        <v>845</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25732,7 +30129,7 @@
         <v>81404</v>
       </c>
       <c r="B601" s="6" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25740,7 +30137,7 @@
         <v>81405</v>
       </c>
       <c r="B602" s="6" t="s">
-        <v>811</v>
+        <v>846</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25748,7 +30145,7 @@
         <v>81406</v>
       </c>
       <c r="B603" s="6" t="s">
-        <v>807</v>
+        <v>847</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25756,7 +30153,7 @@
         <v>81407</v>
       </c>
       <c r="B604" s="6" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25764,7 +30161,7 @@
         <v>81408</v>
       </c>
       <c r="B605" s="6" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25772,7 +30169,7 @@
         <v>81409</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25780,7 +30177,7 @@
         <v>81410</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>823</v>
+        <v>863</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25788,7 +30185,7 @@
         <v>81411</v>
       </c>
       <c r="B608" s="6" t="s">
-        <v>802</v>
+        <v>834</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25796,7 +30193,7 @@
         <v>81412</v>
       </c>
       <c r="B609" s="6" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25804,7 +30201,7 @@
         <v>81413</v>
       </c>
       <c r="B610" s="6" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25812,7 +30209,7 @@
         <v>81414</v>
       </c>
       <c r="B611" s="6" t="s">
-        <v>803</v>
+        <v>864</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25820,7 +30217,7 @@
         <v>81415</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>813</v>
+        <v>865</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25828,7 +30225,7 @@
         <v>81416</v>
       </c>
       <c r="B613" s="6" t="s">
-        <v>814</v>
+        <v>858</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25836,7 +30233,7 @@
         <v>81417</v>
       </c>
       <c r="B614" s="6" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25844,7 +30241,7 @@
         <v>81418</v>
       </c>
       <c r="B615" s="6" t="s">
-        <v>804</v>
+        <v>869</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25852,7 +30249,7 @@
         <v>81419</v>
       </c>
       <c r="B616" s="6" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25860,7 +30257,7 @@
         <v>81420</v>
       </c>
       <c r="B617" s="6" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25868,7 +30265,7 @@
         <v>81421</v>
       </c>
       <c r="B618" s="6" t="s">
-        <v>805</v>
+        <v>866</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25876,7 +30273,7 @@
         <v>81422</v>
       </c>
       <c r="B619" s="6" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25884,7 +30281,7 @@
         <v>81423</v>
       </c>
       <c r="B620" s="6" t="s">
-        <v>806</v>
+        <v>867</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25892,7 +30289,7 @@
         <v>81424</v>
       </c>
       <c r="B621" s="6" t="s">
-        <v>817</v>
+        <v>852</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25900,7 +30297,7 @@
         <v>81425</v>
       </c>
       <c r="B622" s="6" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25908,7 +30305,7 @@
         <v>81426</v>
       </c>
       <c r="B623" s="6" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25916,7 +30313,7 @@
         <v>81427</v>
       </c>
       <c r="B624" s="6" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25924,7 +30321,7 @@
         <v>81428</v>
       </c>
       <c r="B625" s="6" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25932,7 +30329,7 @@
         <v>81429</v>
       </c>
       <c r="B626" s="6" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25940,7 +30337,7 @@
         <v>81430</v>
       </c>
       <c r="B627" s="6" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25948,7 +30345,7 @@
         <v>81431</v>
       </c>
       <c r="B628" s="6" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25956,7 +30353,7 @@
         <v>81432</v>
       </c>
       <c r="B629" s="6" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25964,7 +30361,7 @@
         <v>21199</v>
       </c>
       <c r="B630" s="6" t="s">
-        <v>839</v>
+        <v>939</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25972,7 +30369,7 @@
         <v>22199</v>
       </c>
       <c r="B631" s="6" t="s">
-        <v>840</v>
+        <v>940</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25980,7 +30377,7 @@
         <v>24199</v>
       </c>
       <c r="B632" s="6" t="s">
-        <v>841</v>
+        <v>941</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25988,7 +30385,7 @@
         <v>25199</v>
       </c>
       <c r="B633" s="6" t="s">
-        <v>842</v>
+        <v>942</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25996,7 +30393,7 @@
         <v>27199</v>
       </c>
       <c r="B634" s="6" t="s">
-        <v>843</v>
+        <v>943</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26004,7 +30401,7 @@
         <v>29199</v>
       </c>
       <c r="B635" s="6" t="s">
-        <v>844</v>
+        <v>944</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26012,7 +30409,7 @@
         <v>34199</v>
       </c>
       <c r="B636" s="6" t="s">
-        <v>845</v>
+        <v>945</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26020,7 +30417,7 @@
         <v>37199</v>
       </c>
       <c r="B637" s="6" t="s">
-        <v>846</v>
+        <v>946</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26028,7 +30425,7 @@
         <v>38199</v>
       </c>
       <c r="B638" s="6" t="s">
-        <v>847</v>
+        <v>947</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26036,7 +30433,7 @@
         <v>44199</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>848</v>
+        <v>948</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26044,7 +30441,7 @@
         <v>26199</v>
       </c>
       <c r="B640" s="6" t="s">
-        <v>849</v>
+        <v>949</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26052,7 +30449,7 @@
         <v>31199</v>
       </c>
       <c r="B641" s="6" t="s">
-        <v>850</v>
+        <v>950</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26060,7 +30457,7 @@
         <v>32199</v>
       </c>
       <c r="B642" s="6" t="s">
-        <v>851</v>
+        <v>951</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26068,7 +30465,7 @@
         <v>33199</v>
       </c>
       <c r="B643" s="6" t="s">
-        <v>852</v>
+        <v>952</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26076,7 +30473,7 @@
         <v>39199</v>
       </c>
       <c r="B644" s="6" t="s">
-        <v>853</v>
+        <v>953</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26084,7 +30481,7 @@
         <v>36199</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>854</v>
+        <v>954</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26092,7 +30489,7 @@
         <v>35199</v>
       </c>
       <c r="B646" s="6" t="s">
-        <v>855</v>
+        <v>955</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26100,7 +30497,7 @@
         <v>23199</v>
       </c>
       <c r="B647" s="6" t="s">
-        <v>856</v>
+        <v>956</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26108,7 +30505,7 @@
         <v>39911</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>857</v>
+        <v>957</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26116,7 +30513,7 @@
         <v>49199</v>
       </c>
       <c r="B649" s="6" t="s">
-        <v>858</v>
+        <v>958</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26124,7 +30521,7 @@
         <v>51199</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>859</v>
+        <v>959</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26132,7 +30529,7 @@
         <v>53199</v>
       </c>
       <c r="B651" s="6" t="s">
-        <v>860</v>
+        <v>960</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26140,7 +30537,7 @@
         <v>54199</v>
       </c>
       <c r="B652" s="6" t="s">
-        <v>861</v>
+        <v>961</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26148,7 +30545,7 @@
         <v>56199</v>
       </c>
       <c r="B653" s="6" t="s">
-        <v>862</v>
+        <v>962</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26156,7 +30553,7 @@
         <v>59199</v>
       </c>
       <c r="B654" s="6" t="s">
-        <v>863</v>
+        <v>963</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26164,7 +30561,7 @@
         <v>62199</v>
       </c>
       <c r="B655" s="6" t="s">
-        <v>864</v>
+        <v>964</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26172,7 +30569,7 @@
         <v>52199</v>
       </c>
       <c r="B656" s="6" t="s">
-        <v>865</v>
+        <v>965</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26180,7 +30577,7 @@
         <v>13204</v>
       </c>
       <c r="B657" s="6" t="s">
-        <v>866</v>
+        <v>966</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26188,7 +30585,7 @@
         <v>15302</v>
       </c>
       <c r="B658" s="6" t="s">
-        <v>867</v>
+        <v>967</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26220,7 +30617,7 @@
         <v>36401</v>
       </c>
       <c r="B662" s="6" t="s">
-        <v>868</v>
+        <v>968</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26236,7 +30633,7 @@
         <v>13203</v>
       </c>
       <c r="B664" s="6" t="s">
-        <v>869</v>
+        <v>969</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26244,7 +30641,7 @@
         <v>15405</v>
       </c>
       <c r="B665" s="6" t="s">
-        <v>870</v>
+        <v>970</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26252,7 +30649,7 @@
         <v>15903</v>
       </c>
       <c r="B666" s="6" t="s">
-        <v>871</v>
+        <v>971</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26260,7 +30657,7 @@
         <v>44109</v>
       </c>
       <c r="B667" s="6" t="s">
-        <v>872</v>
+        <v>972</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26268,7 +30665,7 @@
         <v>58199</v>
       </c>
       <c r="B668" s="6" t="s">
-        <v>873</v>
+        <v>973</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
